--- a/imdb_top_250.xlsx
+++ b/imdb_top_250.xlsx
@@ -7,14 +7,20 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Top 250" sheetId="1" r:id="rId1"/>
+    <sheet name="Top Movies" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Top Movies'!$A$2:$G$27</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="99">
+  <si>
+    <t>Rank</t>
+  </si>
   <si>
     <t>Title</t>
   </si>
@@ -28,6 +34,12 @@
     <t>Genres</t>
   </si>
   <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Stars</t>
+  </si>
+  <si>
     <t>The Shawshank Redemption</t>
   </si>
   <si>
@@ -103,17 +115,226 @@
     <t>City of God</t>
   </si>
   <si>
-    <t>Not available in fallback mode</t>
+    <t>Epic, Period Drama, Prison Drama, Drama</t>
+  </si>
+  <si>
+    <t>Epic, Gangster, Tragedy, Crime, Drama</t>
+  </si>
+  <si>
+    <t>Action Epic, Epic, Superhero, Tragedy, Action, Crime, Drama, Thriller</t>
+  </si>
+  <si>
+    <t>Legal Drama, Psychological Drama, Crime, Drama</t>
+  </si>
+  <si>
+    <t>Action Epic, Adventure Epic, Epic, Fantasy Epic, Mountain Adventure, Quest, Sword &amp; Sorcery, Tragedy, Adventure, Drama</t>
+  </si>
+  <si>
+    <t>Docudrama, Epic, Historical Epic, Period Drama, Prison Drama, Tragedy, Biography, Drama, History</t>
+  </si>
+  <si>
+    <t>Dark Comedy, Drug Crime, Gangster, Crime, Drama</t>
+  </si>
+  <si>
+    <t>Action Epic, Adventure Epic, Dark Fantasy, Epic, Fantasy Epic, Quest, Sword &amp; Sorcery, Adventure, Drama, Fantasy</t>
+  </si>
+  <si>
+    <t>Adventure Epic, Dark Comedy, Desert Adventure, Epic, Period Drama, Quest, Spaghetti Western, Western Epic, Adventure, Western</t>
+  </si>
+  <si>
+    <t>Epic, Drama, Romance</t>
+  </si>
+  <si>
+    <t>Psychological Drama, Psychological Thriller, Workplace Drama, Crime, Drama, Thriller</t>
+  </si>
+  <si>
+    <t>Action Epic, Adventure Epic, Epic, Psychological Thriller, Sci-Fi Epic, Action, Adventure, Sci-Fi, Thriller</t>
+  </si>
+  <si>
+    <t>Action Epic, Adventure Epic, Dark Fantasy, Dystopian Sci-Fi, Epic, Fantasy Epic, Globetrotting Adventure, Quest, Sci-Fi Epic, Space Sci-Fi</t>
+  </si>
+  <si>
+    <t>Action Epic, Artificial Intelligence, Cyberpunk, Dystopian Sci-Fi, Gun Fu, Martial Arts, Sci-Fi Epic, Action, Sci-Fi</t>
+  </si>
+  <si>
+    <t>Docudrama, Gangster, True Crime, Biography, Crime, Drama</t>
+  </si>
+  <si>
+    <t>Adventure Epic, Epic, Quest, Sci-Fi Epic, Space Sci-Fi, Time Travel, Adventure, Drama, Sci-Fi</t>
+  </si>
+  <si>
+    <t>Medical Drama, Psychological Drama, Drama</t>
+  </si>
+  <si>
+    <t>Cop Drama, Hard-boiled Detective, Legal Drama, Police Procedural, Psychological Drama, Psychological Thriller, Serial Killer, Crime, Drama, Mystery</t>
+  </si>
+  <si>
+    <t>Feel-Good Romance, Holiday Family, Holiday Romance, Psychological Drama, Supernatural Fantasy, Drama, Family, Fantasy, Holiday, Romance</t>
+  </si>
+  <si>
+    <t>Police Procedural, Psychological Drama, Psychological Horror, Psychological Thriller, Serial Killer, Slasher Horror, Crime, Drama, Horror, Thriller</t>
+  </si>
+  <si>
+    <t>Action Epic, Epic, Period Drama, Samurai, Action, Drama</t>
+  </si>
+  <si>
+    <t>Epic, Period Drama, War Epic, Drama, War</t>
+  </si>
+  <si>
+    <t>Caper, Coming-of-Age, Gangster, Crime, Drama</t>
+  </si>
+  <si>
+    <t>Frank Darabont</t>
+  </si>
+  <si>
+    <t>Francis Ford Coppola</t>
+  </si>
+  <si>
+    <t>Christopher Nolan</t>
+  </si>
+  <si>
+    <t>Sidney Lumet</t>
+  </si>
+  <si>
+    <t>Peter Jackson</t>
+  </si>
+  <si>
+    <t>Steven Spielberg</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino</t>
+  </si>
+  <si>
+    <t>Sergio Leone</t>
+  </si>
+  <si>
+    <t>Robert Zemeckis</t>
+  </si>
+  <si>
+    <t>David Fincher</t>
+  </si>
+  <si>
+    <t>Irvin Kershner</t>
+  </si>
+  <si>
+    <t>Lana Wachowski</t>
+  </si>
+  <si>
+    <t>Martin Scorsese</t>
+  </si>
+  <si>
+    <t>Milos Forman</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Jonathan Demme</t>
+  </si>
+  <si>
+    <t>Akira Kurosawa</t>
+  </si>
+  <si>
+    <t>Fernando Meirelles</t>
+  </si>
+  <si>
+    <t>Tim Robbins, Morgan Freeman, Bob Gunton</t>
+  </si>
+  <si>
+    <t>Marlon Brando, Al Pacino, James Caan</t>
+  </si>
+  <si>
+    <t>Christian Bale, Heath Ledger, Aaron Eckhart</t>
+  </si>
+  <si>
+    <t>Al Pacino, Robert De Niro, Robert Duvall</t>
+  </si>
+  <si>
+    <t>Henry Fonda, Lee J. Cobb, Martin Balsam</t>
+  </si>
+  <si>
+    <t>Elijah Wood, Viggo Mortensen, Ian McKellen</t>
+  </si>
+  <si>
+    <t>Liam Neeson, Ralph Fiennes, Ben Kingsley</t>
+  </si>
+  <si>
+    <t>John Travolta, Uma Thurman, Samuel L. Jackson</t>
+  </si>
+  <si>
+    <t>Elijah Wood, Ian McKellen, Orlando Bloom</t>
+  </si>
+  <si>
+    <t>Clint Eastwood, Eli Wallach, Lee Van Cleef</t>
+  </si>
+  <si>
+    <t>Tom Hanks, Robin Wright, Gary Sinise</t>
+  </si>
+  <si>
+    <t>Elijah Wood, Ian McKellen, Viggo Mortensen</t>
+  </si>
+  <si>
+    <t>Brad Pitt, Edward Norton, Meat Loaf</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio, Joseph Gordon-Levitt, Elliot Page</t>
+  </si>
+  <si>
+    <t>Mark Hamill, Harrison Ford, Carrie Fisher</t>
+  </si>
+  <si>
+    <t>Keanu Reeves, Laurence Fishburne, Carrie-Anne Moss</t>
+  </si>
+  <si>
+    <t>Robert De Niro, Ray Liotta, Joe Pesci</t>
+  </si>
+  <si>
+    <t>Matthew McConaughey, Anne Hathaway, Jessica Chastain</t>
+  </si>
+  <si>
+    <t>Jack Nicholson, Louise Fletcher, Michael Berryman</t>
+  </si>
+  <si>
+    <t>Morgan Freeman, Brad Pitt, Kevin Spacey</t>
+  </si>
+  <si>
+    <t>James Stewart, Donna Reed, Lionel Barrymore</t>
+  </si>
+  <si>
+    <t>Jodie Foster, Anthony Hopkins, Scott Glenn</t>
+  </si>
+  <si>
+    <t>Toshirô Mifune, Takashi Shimura, Keiko Tsushima</t>
+  </si>
+  <si>
+    <t>Tom Hanks, Matt Damon, Tom Sizemore</t>
+  </si>
+  <si>
+    <t>Alexandre Rodrigues, Leandro Firmino, Matheus Nachtergaele</t>
+  </si>
+  <si>
+    <t>IMDb Top 250 Movies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,8 +347,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F305E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,7 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF333399"/>
+        <fgColor rgb="FF1F305E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A6FB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8EBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF4CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,10 +415,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,385 +732,637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" outlineLevel="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
         <v>1994</v>
       </c>
-      <c r="C2">
+      <c r="D3" s="6">
         <v>9.300000000000001</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1972</v>
+      </c>
+      <c r="D4" s="6">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" outlineLevel="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2008</v>
+      </c>
+      <c r="D5" s="6">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1974</v>
+      </c>
+      <c r="D6" s="6">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" outlineLevel="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1957</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2003</v>
+      </c>
+      <c r="D8" s="6">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" outlineLevel="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1993</v>
+      </c>
+      <c r="D9" s="6">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1994</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" outlineLevel="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2001</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1966</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" outlineLevel="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1994</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2002</v>
+      </c>
+      <c r="D14" s="6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" outlineLevel="1">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1999</v>
+      </c>
+      <c r="D15" s="6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2010</v>
+      </c>
+      <c r="D16" s="6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" outlineLevel="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1980</v>
+      </c>
+      <c r="D17" s="6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" outlineLevel="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1990</v>
+      </c>
+      <c r="D19" s="6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2014</v>
+      </c>
+      <c r="D20" s="6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" outlineLevel="1">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1975</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1995</v>
+      </c>
+      <c r="D22" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" outlineLevel="1">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1946</v>
+      </c>
+      <c r="D23" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1991</v>
+      </c>
+      <c r="D24" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" outlineLevel="1">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1972</v>
-      </c>
-      <c r="C3">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2008</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1974</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1957</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2003</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1993</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1994</v>
-      </c>
-      <c r="C9">
-        <v>8.9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2001</v>
-      </c>
-      <c r="C10">
-        <v>8.9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>1966</v>
-      </c>
-      <c r="C11">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>1994</v>
-      </c>
-      <c r="C12">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C25" s="5">
+        <v>1954</v>
+      </c>
+      <c r="D25" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1998</v>
+      </c>
+      <c r="D26" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" outlineLevel="1">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5">
         <v>2002</v>
       </c>
-      <c r="C13">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>1999</v>
-      </c>
-      <c r="C14">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>2010</v>
-      </c>
-      <c r="C15">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>1980</v>
-      </c>
-      <c r="C16">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>1999</v>
-      </c>
-      <c r="C17">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>1990</v>
-      </c>
-      <c r="C18">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>2014</v>
-      </c>
-      <c r="C19">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>1975</v>
-      </c>
-      <c r="C20">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>1995</v>
-      </c>
-      <c r="C21">
+      <c r="D27" s="6">
         <v>8.6</v>
       </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>1946</v>
-      </c>
-      <c r="C22">
-        <v>8.6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>1991</v>
-      </c>
-      <c r="C23">
-        <v>8.6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>1954</v>
-      </c>
-      <c r="C24">
-        <v>8.6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>1998</v>
-      </c>
-      <c r="C25">
-        <v>8.6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>2002</v>
-      </c>
-      <c r="C26">
-        <v>8.6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G27"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>